--- a/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-13T13:44:41+00:00</t>
+    <t>2026-01-13T14:11:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-13T14:11:34+00:00</t>
+    <t>2026-01-13T15:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-13T15:10:39+00:00</t>
+    <t>2026-01-13T15:41:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-13T15:41:05+00:00</t>
+    <t>2026-01-13T15:47:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-13T15:47:36+00:00</t>
+    <t>2026-01-13T16:04:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-13T16:04:44+00:00</t>
+    <t>2026-01-13T16:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-13T16:37:06+00:00</t>
+    <t>2026-01-13T17:16:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-13T17:16:43+00:00</t>
+    <t>2026-01-13T18:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-13T18:00:18+00:00</t>
+    <t>2026-01-13T18:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-13T18:19:57+00:00</t>
+    <t>2026-01-13T18:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-13T18:46:37+00:00</t>
+    <t>2026-01-13T18:51:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-13T18:51:31+00:00</t>
+    <t>2026-01-13T19:50:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/cp-minor-vol2/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-13T19:50:00+00:00</t>
+    <t>2026-01-14T08:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
